--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macuser/Documents/Workspace/python/CVEParserNew2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pali.surdhar/Downloads/getcvefromcpe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53816469-050E-D74F-AF68-1CA9C6285617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78790C-7BAC-4B4D-9A19-6D24EDB2CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
+    <workbookView xWindow="28540" yWindow="7600" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="nshield5" sheetId="2" r:id="rId2"/>
+    <sheet name="soloxc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="296">
   <si>
     <t>Version</t>
   </si>
@@ -51,19 +52,944 @@
   </si>
   <si>
     <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>2.7.14</t>
+  </si>
+  <si>
+    <t>prngd</t>
+  </si>
+  <si>
+    <t>0.9.27</t>
+  </si>
+  <si>
+    <t>tcl</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>zlib</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>pyscard</t>
+  </si>
+  <si>
+    <t>1.9.8</t>
+  </si>
+  <si>
+    <t>wxpython</t>
+  </si>
+  <si>
+    <t>3.0.0.0</t>
+  </si>
+  <si>
+    <t>1.74.0</t>
+  </si>
+  <si>
+    <t>libcap</t>
+  </si>
+  <si>
+    <t>py2app</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>3.41.2</t>
+  </si>
+  <si>
+    <t>gperftools</t>
+  </si>
+  <si>
+    <t>net-snmp</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>sqlite</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>paramiko</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>pbr</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>bcrypt</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>fdt</t>
+  </si>
+  <si>
+    <t>typed_ast</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>2.24.0</t>
+  </si>
+  <si>
+    <t>PyNaCl</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>funcsigs</t>
+  </si>
+  <si>
+    <t>pyserial</t>
+  </si>
+  <si>
+    <t>pycparser</t>
+  </si>
+  <si>
+    <t>mock</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Pygments</t>
+  </si>
+  <si>
+    <t>gitdb</t>
+  </si>
+  <si>
+    <t>4.0.7</t>
+  </si>
+  <si>
+    <t>ptpython</t>
+  </si>
+  <si>
+    <t>3.0.7</t>
+  </si>
+  <si>
+    <t>GitPython</t>
+  </si>
+  <si>
+    <t>3.1.24</t>
+  </si>
+  <si>
+    <t>smmap</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>cryptography</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>lazy_object_proxy</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>idna</t>
+  </si>
+  <si>
+    <t>pylint</t>
+  </si>
+  <si>
+    <t>2.8.3</t>
+  </si>
+  <si>
+    <t>chardet</t>
+  </si>
+  <si>
+    <t>3.0.4</t>
+  </si>
+  <si>
+    <t>zeroconf</t>
+  </si>
+  <si>
+    <t>0.38.3</t>
+  </si>
+  <si>
+    <t>astroid</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>prompt_toolkit</t>
+  </si>
+  <si>
+    <t>3.0.8</t>
+  </si>
+  <si>
+    <t>ifaddr</t>
+  </si>
+  <si>
+    <t>0.1.7</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>jedi</t>
+  </si>
+  <si>
+    <t>0.17.2</t>
+  </si>
+  <si>
+    <t>mccabe</t>
+  </si>
+  <si>
+    <t>0.6.1</t>
+  </si>
+  <si>
+    <t>pytestdiv</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
+  </si>
+  <si>
+    <t>urllib3</t>
+  </si>
+  <si>
+    <t>1.25.10</t>
+  </si>
+  <si>
+    <t>wcwidth</t>
+  </si>
+  <si>
+    <t>0.2.5</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>0.35.1</t>
+  </si>
+  <si>
+    <t>parso</t>
+  </si>
+  <si>
+    <t>0.7.1</t>
+  </si>
+  <si>
+    <t>configparser</t>
+  </si>
+  <si>
+    <t>5.0.2</t>
+  </si>
+  <si>
+    <t>toml</t>
+  </si>
+  <si>
+    <t>0.10.1</t>
+  </si>
+  <si>
+    <t>attrs</t>
+  </si>
+  <si>
+    <t>20.2.0</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>1.15.0</t>
+  </si>
+  <si>
+    <t>pytest</t>
+  </si>
+  <si>
+    <t>6.1.0</t>
+  </si>
+  <si>
+    <t>mypy</t>
+  </si>
+  <si>
+    <t>virtualenv</t>
+  </si>
+  <si>
+    <t>20.0.4</t>
+  </si>
+  <si>
+    <t>appdirs</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>pytest_mock</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>asn1crypto</t>
+  </si>
+  <si>
+    <t>iniconfig</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>isort</t>
+  </si>
+  <si>
+    <t>5.9.1</t>
+  </si>
+  <si>
+    <t>cffi</t>
+  </si>
+  <si>
+    <t>1.14.3</t>
+  </si>
+  <si>
+    <t>pytest_cov</t>
+  </si>
+  <si>
+    <t>2.10.1</t>
+  </si>
+  <si>
+    <t>pluggy</t>
+  </si>
+  <si>
+    <t>0.13.1</t>
+  </si>
+  <si>
+    <t>pyparsing</t>
+  </si>
+  <si>
+    <t>2.4.7</t>
+  </si>
+  <si>
+    <t>mypy_extensions</t>
+  </si>
+  <si>
+    <t>0.4.3</t>
+  </si>
+  <si>
+    <t>certifi</t>
+  </si>
+  <si>
+    <t>2020.6.20</t>
+  </si>
+  <si>
+    <t>filelock</t>
+  </si>
+  <si>
+    <t>3.0.12</t>
+  </si>
+  <si>
+    <t>distlib</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>typing_extensions</t>
+  </si>
+  <si>
+    <t>3.10.0.2</t>
+  </si>
+  <si>
+    <t>certvalidator</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>musl</t>
+  </si>
+  <si>
+    <t>1.1.24</t>
+  </si>
+  <si>
+    <t>http://www.musl-libc.org</t>
+  </si>
+  <si>
+    <t>lxc</t>
+  </si>
+  <si>
+    <t>4.0.12</t>
+  </si>
+  <si>
+    <t>GPL v2</t>
+  </si>
+  <si>
+    <t>https://github.com/lxc/lxc</t>
+  </si>
+  <si>
+    <t>fortify-headers</t>
+  </si>
+  <si>
+    <t>e3fee64643279c144efd3d6856ed4e818c0d5ca2</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/gsauthof/fortify-headers</t>
+  </si>
+  <si>
+    <t>linux-headers</t>
+  </si>
+  <si>
+    <t>5.4.105</t>
+  </si>
+  <si>
+    <t>GPL-2.0</t>
+  </si>
+  <si>
+    <t>https://cdn.kernel.org</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>2.2.53</t>
+  </si>
+  <si>
+    <t>GPL-2.0+ (programs), LGPL-2.1+ (libraries)</t>
+  </si>
+  <si>
+    <t>http://savannah.nongnu.org/projects/acl</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>2.4.48</t>
+  </si>
+  <si>
+    <t>http://savannah.nongnu.org/projects/attr</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>2.8.5</t>
+  </si>
+  <si>
+    <t>http://people.redhat.com/sgrubb/audit</t>
+  </si>
+  <si>
+    <t>libcap-ng</t>
+  </si>
+  <si>
+    <t>0.7.9</t>
+  </si>
+  <si>
+    <t>GPL-2.0+ (programs), LGPL-2.1+ (library)</t>
+  </si>
+  <si>
+    <t>http://people.redhat.com/sgrubb/libcap-ng</t>
+  </si>
+  <si>
+    <t>busybox</t>
+  </si>
+  <si>
+    <t>1.35.0</t>
+  </si>
+  <si>
+    <t>http://www.busybox.net</t>
+  </si>
+  <si>
+    <t>i2c-tools</t>
+  </si>
+  <si>
+    <t>GPL-2.0+, GPL-2.0 (py-smbus), LGPL-2.1+ (libi2c)</t>
+  </si>
+  <si>
+    <t>https://www.kernel.org/pub/software/utils/i2c-tools</t>
+  </si>
+  <si>
+    <t>python3</t>
+  </si>
+  <si>
+    <t>3.8.2</t>
+  </si>
+  <si>
+    <t>Python-2.0, others</t>
+  </si>
+  <si>
+    <t>https://python.org</t>
+  </si>
+  <si>
+    <t>expat</t>
+  </si>
+  <si>
+    <t>2.2.9</t>
+  </si>
+  <si>
+    <t>http://downloads.sourceforge.net/project/expat/expat/2.2.9</t>
+  </si>
+  <si>
+    <t>libffi</t>
+  </si>
+  <si>
+    <t>https://github.com/libffi/libffi</t>
+  </si>
+  <si>
+    <t>libzlib</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>Zlib</t>
+  </si>
+  <si>
+    <t>http://www.zlib.net</t>
+  </si>
+  <si>
+    <t>kmod</t>
+  </si>
+  <si>
+    <t>LGPL-2.1+ (library), GPL-2.0+ (tools)</t>
+  </si>
+  <si>
+    <t>https://cdn.kernel.org/pub/linux/utils/kernel/kmod</t>
+  </si>
+  <si>
+    <t>libselinux</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>https://github.com/SELinuxProject/selinux</t>
+  </si>
+  <si>
+    <t>libsepol</t>
+  </si>
+  <si>
+    <t>LGPL-2.1+</t>
+  </si>
+  <si>
+    <t>musl-fts</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>https://github.com/void-linux/musl-fts</t>
+  </si>
+  <si>
+    <t>pcre</t>
+  </si>
+  <si>
+    <t>https://ftp.pcre.org/pub/pcre</t>
+  </si>
+  <si>
+    <t>mtd</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>http://www.linux-mtd.infradead.org/</t>
+  </si>
+  <si>
+    <t>lzo</t>
+  </si>
+  <si>
+    <t>GPL-2.0+</t>
+  </si>
+  <si>
+    <t>http://www.oberhumer.com/opensource/lzo</t>
+  </si>
+  <si>
+    <t>libopenssl</t>
+  </si>
+  <si>
+    <t>1.1.1f</t>
+  </si>
+  <si>
+    <t>OpenSSL or SSLeay</t>
+  </si>
+  <si>
+    <t>https://www.openssl.org/</t>
+  </si>
+  <si>
+    <t>cryptodev-linux</t>
+  </si>
+  <si>
+    <t>a1e738aef6249ee3bddf997e91e59b1210553209</t>
+  </si>
+  <si>
+    <t>https://github.com/cryptodev-linux/cryptodev-linux/</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>https://cdn.kernel.org/</t>
+  </si>
+  <si>
+    <t>util-linux</t>
+  </si>
+  <si>
+    <t>2.35.1</t>
+  </si>
+  <si>
+    <t>GPL-2.0+, BSD-4-Clause, LGPL-2.1+ (libblkid, libfdisk, libmount), BSD-3-Clause (libuuid), ISC (rfkill)</t>
+  </si>
+  <si>
+    <t>https://cdn.kernel.org/pub/linux/utils/util-linux</t>
+  </si>
+  <si>
+    <t>ncurses</t>
+  </si>
+  <si>
+    <t>MIT with advertising clause</t>
+  </si>
+  <si>
+    <t>http://ftpmirror.gnu.org/ncurses</t>
+  </si>
+  <si>
+    <t>procps-ng</t>
+  </si>
+  <si>
+    <t>3.3.15</t>
+  </si>
+  <si>
+    <t>GPL-2.0+, LGPL-2.0+ (libproc and libps)</t>
+  </si>
+  <si>
+    <t>http://downloads.sourceforge.net/project/procps-ng/Production</t>
+  </si>
+  <si>
+    <t>bzip2</t>
+  </si>
+  <si>
+    <t>1.0.8</t>
+  </si>
+  <si>
+    <t>bzip2 license</t>
+  </si>
+  <si>
+    <t>https://sourceware.org/pub/bzip2</t>
+  </si>
+  <si>
+    <t>checkpolicy</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>https://github.com/westes/flex</t>
+  </si>
+  <si>
+    <t>dbus</t>
+  </si>
+  <si>
+    <t>1.12.16</t>
+  </si>
+  <si>
+    <t>AFL-2.1 or GPL-2.0+ (library, tools), GPL-2.0+ (tools)</t>
+  </si>
+  <si>
+    <t>https://dbus.freedesktop.org/releases/dbus</t>
+  </si>
+  <si>
+    <t>iptables</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>https://netfilter.org/projects/iptables</t>
+  </si>
+  <si>
+    <t>libdaemon</t>
+  </si>
+  <si>
+    <t>http://0pointer.de/lennart/projects/libdaemon</t>
+  </si>
+  <si>
+    <t>libfuse</t>
+  </si>
+  <si>
+    <t>2.9.9</t>
+  </si>
+  <si>
+    <t>GPL-2.0, LGPL-2.1</t>
+  </si>
+  <si>
+    <t>https://github.com/libfuse/libfuse/</t>
+  </si>
+  <si>
+    <t>libglib2</t>
+  </si>
+  <si>
+    <t>2.62.4</t>
+  </si>
+  <si>
+    <t>http://ftp.gnome.org/pub/gnome/sources/glib</t>
+  </si>
+  <si>
+    <t>libseccomp</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>LGPL-2.1</t>
+  </si>
+  <si>
+    <t>https://github.com/seccomp/libseccomp</t>
+  </si>
+  <si>
+    <t>libsemanage</t>
+  </si>
+  <si>
+    <t>logrotate</t>
+  </si>
+  <si>
+    <t>3.15.1</t>
+  </si>
+  <si>
+    <t>https://github.com/logrotate/logrotate</t>
+  </si>
+  <si>
+    <t>popt</t>
+  </si>
+  <si>
+    <t>http://rpm5.org/files/popt</t>
+  </si>
+  <si>
+    <t>lrzsz</t>
+  </si>
+  <si>
+    <t>0.12.20</t>
+  </si>
+  <si>
+    <t>http://www.ohse.de/uwe/releases</t>
+  </si>
+  <si>
+    <t>openssh</t>
+  </si>
+  <si>
+    <t>8.1p1</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause, BSD-2-Clause, Public Domain</t>
+  </si>
+  <si>
+    <t>http://ftp.openbsd.org/pub/OpenBSD/OpenSSH/portable</t>
+  </si>
+  <si>
+    <t>policycoreutils</t>
+  </si>
+  <si>
+    <t>python-decorator</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/decorator/</t>
+  </si>
+  <si>
+    <t>python-networkx</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/networkx/</t>
+  </si>
+  <si>
+    <t>python-setuptools</t>
+  </si>
+  <si>
+    <t>41.4.0</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/setuptools/</t>
+  </si>
+  <si>
+    <t>refpolicy</t>
+  </si>
+  <si>
+    <t>https://github.com/SELinuxProject/refpolicy</t>
+  </si>
+  <si>
+    <t>selinux-python</t>
+  </si>
+  <si>
+    <t>semodule-utils</t>
+  </si>
+  <si>
+    <t>setools</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>GPL-2.0+, LGPL-2.1+</t>
+  </si>
+  <si>
+    <t>https://github.com/TresysTechnology/setools</t>
+  </si>
+  <si>
+    <t>strace</t>
+  </si>
+  <si>
+    <t>https://strace.io/files/5.4</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t>1.8.31</t>
+  </si>
+  <si>
+    <t>ISC, BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>https://www.sudo.ws/sudo/dist</t>
+  </si>
+  <si>
+    <t>syslog-ng</t>
+  </si>
+  <si>
+    <t>3.24.1</t>
+  </si>
+  <si>
+    <t>LGPL-2.1+ (syslog-ng core), GPL-2.0+ (modules)</t>
+  </si>
+  <si>
+    <t>https://github.com/balabit/syslog-ng</t>
+  </si>
+  <si>
+    <t>pkc-host</t>
+  </si>
+  <si>
+    <t>cae512c94e2a26cc6b0d6393d307cdea2d7282c9</t>
+  </si>
+  <si>
+    <t>https://github.com/nxp-qoriq-yocto-sdk/pkc-host</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,13 +1009,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -103,6 +1061,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC65898-4857-755F-8A08-9F14E9954BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4343400" y="15036800"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339C00B6-DDAA-541E-B95F-E672AEDFCCE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5397500" y="15036800"/>
+          <a:ext cx="88900" cy="88900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,42 +1489,2633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D476AB9-6CD0-1D49-A45B-44D60F3B753C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450C0DE-C413-E44C-91B6-602FBBAFE6E5}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="14">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="14">
+        <v>8.43</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2.2020022899999998</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA427F55-F5D1-5247-B7E7-7B170F162B91}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="14">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="14">
+        <v>8.43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2.2020022899999998</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.musl-libc.org/" xr:uid="{85EA963D-F413-4B4D-9C23-4F3CC3304AFF}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{EE050ED2-D6A0-2549-8611-4A81725057AB}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{BCB4DADF-1F2E-8D49-813F-45493EEC4F6C}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://cdn.kernel.org/" xr:uid="{3067282F-BDA0-2B42-ADE2-5A90640D7CC8}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{BF174ABF-824C-7A4C-97EC-97A0512BE2AA}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{F385A865-954A-F742-8C04-A6D1B77CF5A0}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{C0E82B99-5517-514B-84D2-7CAC58F52663}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{40EB58CA-E315-994E-A882-925BB36BA73C}"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://www.busybox.net/" xr:uid="{7665B0BF-D754-4148-B51C-7889CB9FB587}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{941AB607-75BC-7040-87E8-B3A1E65DED95}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://python.org/" xr:uid="{AE1F0319-9139-4948-BCBE-4CB001EF4B10}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{DD69386A-7F7E-B74C-BA91-32733DF62AF0}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{12DB9629-A4E9-AB4F-8B60-86CA1A0DA005}"/>
+    <hyperlink ref="E15" r:id="rId14" display="http://www.zlib.net/" xr:uid="{0E22F434-FE32-5849-B7FD-76AEF54F26D5}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{BF63B8CA-3F57-5C4E-88AA-8096EA599760}"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://github.com/SELinuxProject" xr:uid="{B7BE9419-0C47-144A-B667-A0829F742D64}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{BBB92839-22E5-E54A-B96A-5C2013948793}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{53ACC791-592A-C14F-97AB-2DD020EB9F6A}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{9622F01A-CF03-2E43-89FF-4103803245A3}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{F574B468-2CB9-404F-BAAD-A6908E37D475}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{DC440621-E8F4-6446-A4DC-4B85C868C380}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{10B4699B-C071-7A49-9AD7-5CCA5A467D0E}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{A147AB15-75A6-BE49-935D-AD710199BF94}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{2525A9DB-C6A0-514E-B1D1-6EF6EF5875EE}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{0F280AC5-5F74-E045-85B1-A7D995AA41AA}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{AFDF605A-F96E-284E-8583-CBD4DE4404CB}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{7C1515D7-2B62-A24B-AB8F-0F1D30091A39}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{5106A33E-1506-8044-B367-E4E835225AF3}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{89E0C39D-2700-E741-AC55-D3391B39D992}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{DB4B1930-35D8-8C40-A312-50284DBC9A57}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{CFA6A9DE-5376-C04F-AC5E-0FF4A3FE36CB}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{4140D567-6711-5042-9AFA-BC89DDFC164C}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{F37C142A-92B2-4E4C-955E-407725D60812}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{9D348AEB-32D9-4341-8E4A-DCEDCD1B82A5}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{D611073D-F21F-BF47-BA0A-0AD8C620BBEE}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{76741A1E-BF17-9948-87C6-680BD7D3FF33}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00D07B23-6B11-6142-9C24-E1E2A60ED1A9}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{2B13087C-C77C-DB4D-A579-BCC5EC680343}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{DFE55678-9FDE-704E-914C-2A611415361A}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{8EE6C765-A783-8E41-AFD1-EFD31B8BF482}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{545DF610-CE49-AB4B-B5E8-FC8DCF28D478}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{4A12D8B8-8494-444B-A771-80BC6D8451B3}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{6648391D-6666-824D-BEBE-81A0EE3D4315}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{7412A83C-6486-7B49-B0B5-BD8F787B3C5D}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{EB0CB9D0-AAE9-5248-A654-9EFC6A59436B}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{301E7851-BB2A-374B-BBCA-ACEB2771D585}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{E1B33DC6-1E36-1B43-8F58-18E7A0D41774}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{74E08A36-3BF2-A64A-91BC-7965E7CFB519}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{06C88B9F-EDED-C04A-8AC8-04F7A7405EAE}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{7B6BF6FC-C0D4-404D-A53F-1DBD8C500D36}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{E8D09173-99EA-2F46-9957-590BCCFA0C53}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{E24034A0-DAB9-CB44-B43F-184BBA63F802}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{3F0DF7BA-AA83-9D41-9B1E-87B93AEF0F90}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pali.surdhar/Downloads/getcvefromcpe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E381E602-C842-3B45-9367-5AC45E8BFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F671DF1-84A8-D147-B3A3-DD4EED41B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
+    <workbookView xWindow="42680" yWindow="5800" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="product1" sheetId="1" r:id="rId1"/>
@@ -15388,10 +15388,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301EBAE-D1E8-1C46-A4A1-0B505F843D5B}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15400,7 +15400,7 @@
     <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1005</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1006</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1435</v>
       </c>
@@ -15458,22 +15458,23 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="14" t="s">
-        <v>402</v>
-      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1132</v>
       </c>
@@ -15488,7 +15489,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1133</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1134</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>1135</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>1136</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>386</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>1140</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>1141</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>1145</v>
       </c>
@@ -15608,7 +15609,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>1148</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>324</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>1154</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>1155</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>1158</v>
       </c>
@@ -15698,7 +15699,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>1159</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>1162</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>1165</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>1166</v>
       </c>
@@ -15758,22 +15759,23 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="14">
-        <v>3.1</v>
-      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>618</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>1171</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>1174</v>
       </c>
@@ -15803,7 +15805,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>1176</v>
       </c>
@@ -15818,7 +15820,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>259</v>
       </c>
@@ -15833,7 +15835,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>419</v>
       </c>
@@ -15848,7 +15850,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>1180</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>1183</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pali.surdhar/Downloads/getcvefromcpe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F671DF1-84A8-D147-B3A3-DD4EED41B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C952D-6E89-804C-B855-4B18F0E87C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42680" yWindow="5800" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
+    <workbookView xWindow="3120" yWindow="7840" windowWidth="33600" windowHeight="20500" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="product1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="1437">
   <si>
     <t>Version</t>
   </si>
@@ -4350,6 +4350,9 @@
   </si>
   <si>
     <t>gcc</t>
+  </si>
+  <si>
+    <t>1.1.1t</t>
   </si>
 </sst>
 </file>
@@ -4868,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D476AB9-6CD0-1D49-A45B-44D60F3B753C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4912,7 +4915,7 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="13" t="s">
-        <v>4</v>
+        <v>1436</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5214,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391C29E5-4BBA-BF46-82BF-4343E6666CD4}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8629,7 +8632,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8996,7 +8999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA9A4D1-C8ED-D84A-96B5-71273E61F1C3}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
@@ -15390,8 +15393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301EBAE-D1E8-1C46-A4A1-0B505F843D5B}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15463,7 +15466,9 @@
         <v>1009</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>579</v>
       </c>
@@ -15764,7 +15769,9 @@
         <v>1169</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>3.1</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>618</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pali.surdhar/Downloads/getcvefromcpe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA2CFD-88BB-3C46-BB94-2DC1B3512B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30FF6A-1108-BF44-BE13-9D6551E15532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
+    <workbookView xWindow="220" yWindow="1260" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{55FAB557-CDDF-9149-83BF-CB279CF13EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="product1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="1463">
   <si>
     <t>Version</t>
   </si>
@@ -4376,6 +4376,63 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>pyyaml</t>
+  </si>
+  <si>
+    <t>certifi_project</t>
+  </si>
+  <si>
+    <t>2017.11.5</t>
+  </si>
+  <si>
+    <t>pypa</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>19.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pip </t>
+  </si>
+  <si>
+    <t>setuptools</t>
+  </si>
+  <si>
+    <t>1.25.4</t>
+  </si>
+  <si>
+    <t>wheel-project</t>
+  </si>
+  <si>
+    <t>0.38.1</t>
+  </si>
+  <si>
+    <t>golang</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>65.5.0</t>
+  </si>
+  <si>
+    <t>0.0.0-20201203163018-be400aefbc4c</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -4495,7 +4552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4541,11 +4598,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4635,13 +4698,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4683,13 +4746,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4731,13 +4794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4779,13 +4842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4827,13 +4890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4875,13 +4938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4923,13 +4986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -4971,13 +5034,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5019,13 +5082,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5067,13 +5130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5115,13 +5178,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5163,13 +5226,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5211,13 +5274,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5259,13 +5322,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5307,13 +5370,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5355,13 +5418,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5403,13 +5466,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5451,13 +5514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5499,13 +5562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5547,13 +5610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5595,13 +5658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -6307,80 +6370,164 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798EB2C-8B4D-9545-B46F-35C870162C80}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1" t="s">
         <v>1439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="F2" s="25" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>1435</v>
       </c>
-      <c r="C3" s="20">
+      <c r="D3" s="20">
         <v>2020.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>1440</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <v>8.1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>267</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2020.01</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D8" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{7F308A44-950A-6947-A24B-E99FFFA2BA61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6846,28 +6993,28 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>186</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -17213,7 +17360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301EBAE-D1E8-1C46-A4A1-0B505F843D5B}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -18682,84 +18829,150 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE13542-0EC4-264E-B120-4F2C113814E9}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C3" s="20">
-        <v>2020.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{7F308A44-950A-6947-A24B-E99FFFA2BA61}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>